--- a/res/testcase/monthticket/monthTicketBill.xlsx
+++ b/res/testcase/monthticket/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="657" activeTab="4"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="657" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="002_renewMoney" sheetId="3" r:id="rId3"/>
     <sheet name="003_extendTime" sheetId="6" r:id="rId4"/>
     <sheet name="004_refundMoney" sheetId="7" r:id="rId5"/>
+    <sheet name="005_ImportTicketBill" sheetId="8" r:id="rId6"/>
+    <sheet name="006_filterTicketBill" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>动作</t>
   </si>
@@ -266,6 +268,9 @@
     <t>创建一个"粤Z"开头的随机车牌，参数为一个变量</t>
   </si>
   <si>
+    <t>检查列表的文本</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -534,6 +539,63 @@
   </si>
   <si>
     <t>退款成功</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导入</t>
+  </si>
+  <si>
+    <t>选择停车场</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择文件</t>
+  </si>
+  <si>
+    <t>G:\upload\month_ticket_bill.xls</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导入提示界面</t>
+  </si>
+  <si>
+    <t>全部成功(提示保留一天)</t>
+  </si>
+  <si>
+    <t>2导入界面</t>
+  </si>
+  <si>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.关闭-提示</t>
+  </si>
+  <si>
+    <t>输入车牌</t>
+  </si>
+  <si>
+    <t>粤Z10101</t>
+  </si>
+  <si>
+    <t>点击按钮</t>
+  </si>
+  <si>
+    <t>退款</t>
+  </si>
+  <si>
+    <t>退款金额</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择停车场下拉框</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择停车场</t>
+  </si>
+  <si>
+    <t>出租车停车场;on</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.检查列表的文本</t>
+  </si>
+  <si>
+    <t>2筛选界面</t>
   </si>
 </sst>
 </file>
@@ -543,8 +605,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -569,30 +631,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -602,6 +650,21 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -621,9 +684,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,9 +727,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,30 +737,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -683,6 +751,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -690,23 +766,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,36 +789,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -769,13 +801,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,48 +909,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -895,7 +921,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,6 +958,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,8 +1025,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,24 +1072,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,26 +1119,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1065,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,137 +1139,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,6 +1282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1230,9 +1298,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1251,14 +1316,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1608,10 +1667,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1621,275 +1680,275 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="14" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="14" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="14"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
@@ -1897,31 +1956,31 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="16" t="s">
@@ -1929,43 +1988,48 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="5" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="5" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1980,8 +2044,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1991,29 +2055,29 @@
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2022,303 +2086,303 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" ht="33" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="6" t="s">
         <v>101</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="8" t="s">
         <v>105</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="8" t="s">
         <v>109</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="8" t="s">
         <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>114</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>118</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="8" t="s">
         <v>119</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="8" t="s">
         <v>122</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="8" t="s">
         <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>126</v>
+      <c r="D14" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B15" s="8" t="s">
         <v>128</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>129</v>
+      <c r="D15" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>130</v>
+        <v>89</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>131</v>
+      <c r="D16" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="19" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    </row>
+    <row r="20" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2358,29 +2422,29 @@
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" ht="15" spans="1:5">
+    <row r="1" s="6" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2389,203 +2453,203 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="5" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="9" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>151</v>
+      <c r="D10" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="11" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>126</v>
+      <c r="D11" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>129</v>
+      <c r="D12" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" s="4" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="15" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -2594,24 +2658,24 @@
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2648,33 +2712,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="26" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10.625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="26" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="26" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2683,186 +2747,186 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>158</v>
+      <c r="D10" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>160</v>
+      <c r="D11" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2871,25 +2935,25 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2914,8 +2978,8 @@
   <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2927,24 +2991,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2953,148 +3017,148 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>164</v>
+      <c r="D10" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>165</v>
+        <v>116</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>166</v>
+      <c r="D11" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -3102,54 +3166,54 @@
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>119</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>169</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="5"/>
       <c r="E13" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -3158,25 +3222,25 @@
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3194,4 +3258,504 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="24" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" ht="24" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="24" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E16" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C19 C2:C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C2:C8">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/monthticket/monthTicketBill.xlsx
+++ b/res/testcase/monthticket/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="657" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="657" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,19 @@
     <sheet name="004_refundMoney" sheetId="7" r:id="rId5"/>
     <sheet name="005_ImportTicketBill" sheetId="8" r:id="rId6"/>
     <sheet name="006_filterTicketBill" sheetId="9" r:id="rId7"/>
+    <sheet name="007_batchRenewMoney" sheetId="10" r:id="rId8"/>
+    <sheet name="008_batchRefundMoney" sheetId="11" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315">
   <si>
     <t>动作</t>
   </si>
@@ -271,6 +277,12 @@
     <t>检查列表的文本</t>
   </si>
   <si>
+    <t>创建月票号</t>
+  </si>
+  <si>
+    <t>创建一个"UI月卡"开头的随机号，参数为一个变量</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -286,19 +298,298 @@
     <t>1</t>
   </si>
   <si>
+    <t>MonthTicketPage.月票管理</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>点击优惠管理</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>点击车主信息</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.月票管理1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>1月票管理界面</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>创建对内月票</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.对内创建月票</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>选择车场类型</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.车场类型</t>
+  </si>
+  <si>
+    <t>传统停车场</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>月票名称</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>输入月票名称</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.月票名称</t>
+  </si>
+  <si>
+    <t>${001_addTicketBill}.月票名称</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>输入简介</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.简介</t>
+  </si>
+  <si>
+    <t>艾科智泊</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>点击支付停车场</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.支付停车场</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>选择停车场列表</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.选择停车场列表</t>
+  </si>
+  <si>
+    <t>AKE入口;on</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>AKE出口;on</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击财务主体</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.财务主体</t>
+  </si>
+  <si>
+    <t>输入支持授权车牌数</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.支持授权车牌数</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>点击可售时间</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.可售时间</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>点击后一天</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.后一周</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>输入允许车主向前续费</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.允许车主向前续费</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>续费方式</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.续费方式</t>
+  </si>
+  <si>
+    <t>自然月</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>输入单价</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.单价</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>月票数量</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.月票数量</t>
+  </si>
+  <si>
+    <t>无限</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.备注</t>
+  </si>
+  <si>
+    <t>UI自动化测试</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>2月票管理新增</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.确认-提示</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>月票创建成功</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>选择搜索类型</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.选择搜索类型</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>输入搜索框</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.搜索框</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>上架</t>
+  </si>
+  <si>
+    <t>MonthTicketPage.上架</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>MonthTicketBillPage.月票管理</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>33</t>
   </si>
   <si>
     <t>点击月票管理</t>
   </si>
   <si>
-    <t>3</t>
+    <t>34</t>
   </si>
   <si>
     <t>点击月票订单</t>
@@ -307,168 +598,240 @@
     <t>MonthTicketBillPage.月票订单</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>截图</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>4月票订单界面</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>开通对内月票</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.开通对内月票</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.月票名称</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>车主姓名</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.车主姓名</t>
+  </si>
+  <si>
+    <t>UI车主</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>购买手机号</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.购买手机号</t>
+  </si>
+  <si>
+    <t>13800138000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>创建随机车牌</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.车牌号</t>
+  </si>
+  <si>
+    <t>${001_addTicketBill}.车牌号</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>可用车位数</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.可用车位数</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>有效期自然月</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.有效期自然月</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>折后价</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.折后价</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>车主可续费时长</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.车主可续费时长</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.备注</t>
+  </si>
+  <si>
+    <t>UI自动化</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5月票订单填写界面</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.确认-提示</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>6保存后截图</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>${001_addTicketBill}.车牌号;0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>暂停5秒</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>${001_addTicketBill}.车牌号;1</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>点击车场管理</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.车场管理</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>点击进出管理</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.进出管理</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>离场记录</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.离场记录</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>7离场记录界面</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>暂停3秒</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.选择搜索类型</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>搜索框</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.搜索框</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>搜索按钮</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>CarPassAndOutPage.查询记录列表</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>8查询界面</t>
   </si>
   <si>
     <t>1月票订单界面</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>开通对内月票</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.开通对内月票</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>月票名称</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.月票名称</t>
-  </si>
-  <si>
-    <t>UI自动化对内月票勿动</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>车主姓名</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.车主姓名</t>
-  </si>
-  <si>
-    <t>UI车主</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>购买手机号</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.购买手机号</t>
-  </si>
-  <si>
-    <t>13800138000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>创建随机车牌</t>
-  </si>
-  <si>
-    <t>车牌号</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.车牌号</t>
-  </si>
-  <si>
-    <t>${001_addTicketBill}.车牌号</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>可用车位数</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.可用车位数</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>有效期自然月</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.有效期自然月</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>折后价</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.折后价</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>车主可续费时长</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.车主可续费时长</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.备注</t>
-  </si>
-  <si>
-    <t>UI自动化</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2月票订单填写界面</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.确认-提示</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>3保存后截图</t>
-  </si>
-  <si>
-    <t>选择搜索类型</t>
-  </si>
-  <si>
     <t>MonthTicketBillPage.选择搜索类型</t>
   </si>
   <si>
-    <t>输入搜索框</t>
-  </si>
-  <si>
     <t>MonthTicketBillPage.搜索框</t>
   </si>
   <si>
-    <t>点击搜索按钮</t>
-  </si>
-  <si>
     <t>MonthTicketBillPage.搜索按钮</t>
   </si>
   <si>
@@ -487,15 +850,9 @@
     <t>3续费界面</t>
   </si>
   <si>
-    <t>点击确认</t>
-  </si>
-  <si>
     <t>4操作成功</t>
   </si>
   <si>
-    <t>点击车主信息</t>
-  </si>
-  <si>
     <t>延长续费时间</t>
   </si>
   <si>
@@ -544,58 +901,76 @@
     <t>MonthTicketBillPage.导入</t>
   </si>
   <si>
+    <t>选择文件</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择文件</t>
+  </si>
+  <si>
+    <t>G:\upload\month_ticket_bill.xls</t>
+  </si>
+  <si>
+    <t>等待3秒</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.导入提示界面</t>
+  </si>
+  <si>
+    <t>全部成功(提示保留一天)</t>
+  </si>
+  <si>
+    <t>2导入界面</t>
+  </si>
+  <si>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.关闭-提示</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择搜索时间</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.最近三个月</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.选择停车场下拉框</t>
+  </si>
+  <si>
     <t>选择停车场</t>
   </si>
   <si>
-    <t>MonthTicketBillPage.选择文件</t>
-  </si>
-  <si>
-    <t>G:\upload\month_ticket_bill.xls</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.导入提示界面</t>
-  </si>
-  <si>
-    <t>全部成功(提示保留一天)</t>
-  </si>
-  <si>
-    <t>2导入界面</t>
-  </si>
-  <si>
-    <t>点击关闭</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.关闭-提示</t>
-  </si>
-  <si>
-    <t>输入车牌</t>
-  </si>
-  <si>
-    <t>粤Z10101</t>
-  </si>
-  <si>
-    <t>点击按钮</t>
+    <t>MonthTicketBillPage.选择停车场</t>
+  </si>
+  <si>
+    <t>出租车停车场;on</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.检查列表的文本</t>
   </si>
   <si>
     <t>退款</t>
   </si>
   <si>
-    <t>退款金额</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.选择停车场下拉框</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.选择停车场</t>
-  </si>
-  <si>
-    <t>出租车停车场;on</t>
-  </si>
-  <si>
-    <t>MonthTicketBillPage.检查列表的文本</t>
-  </si>
-  <si>
     <t>2筛选界面</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.批量续费</t>
+  </si>
+  <si>
+    <t>G:\upload\month_ticket_bill_renewBatch.xls</t>
+  </si>
+  <si>
+    <t>2批量续费导入界面</t>
+  </si>
+  <si>
+    <t>MonthTicketBillPage.批量退费</t>
+  </si>
+  <si>
+    <t>G:\upload\month_ticket_bill_batchRefund.xls</t>
+  </si>
+  <si>
+    <t>2批量退费导入界面</t>
   </si>
 </sst>
 </file>
@@ -604,11 +979,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,80 +1001,18 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -713,7 +1026,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -727,18 +1054,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,6 +1101,59 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -789,7 +1170,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,25 +1260,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,61 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +1320,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,61 +1344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,24 +1403,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1066,6 +1429,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,21 +1500,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1127,10 +1508,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,137 +1520,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1285,22 +1666,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1378,6 +1762,64 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Actions"/>
+      <sheetName val="001_addInternalTicket"/>
+      <sheetName val="002_InternalTicketUpLowerline"/>
+      <sheetName val="003_editInternalTicket"/>
+      <sheetName val="004_delInternalTicket"/>
+      <sheetName val="005_addExternalTicket"/>
+      <sheetName val="006_externalTicketUpLowerline"/>
+      <sheetName val="007_editExternalTicket"/>
+      <sheetName val="008_checkSupperParking"/>
+      <sheetName val="009_filterMonthTicket"/>
+      <sheetName val="010_updateInformation"/>
+      <sheetName val="011_delExternalTicket"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Actions"/>
+      <sheetName val="001_checkInsideCar"/>
+      <sheetName val="002_checkChargeBill"/>
+      <sheetName val="003_checkLeaveCar"/>
+      <sheetName val="004_abnormalInsideCar"/>
+      <sheetName val="005_adjustCarWaterNum"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1667,10 +2109,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1680,275 +2122,275 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B35" t="s">
@@ -1956,80 +2398,88 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="16" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2042,10 +2492,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2055,29 +2505,29 @@
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2086,106 +2536,105 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:6">
+    </row>
+    <row r="9" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
@@ -2201,9 +2650,9 @@
       <c r="E9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:6">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
@@ -2211,192 +2660,916 @@
         <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:6">
+        <v>116</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:6">
-      <c r="A13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:6">
+      <c r="E13" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="33" customHeight="1" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>132</v>
+      <c r="D16" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>92</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>96</v>
+      <c r="B17" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" s="6" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>143</v>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="26" customHeight="1" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="26" customHeight="1" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" ht="26" customHeight="1" spans="1:4">
+      <c r="A34" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" ht="26" customHeight="1" spans="1:4">
+      <c r="A35" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" ht="26" customHeight="1" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" ht="26" customHeight="1" spans="1:6">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" ht="26" customHeight="1" spans="1:6">
+      <c r="A39" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" ht="26" customHeight="1" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" ht="26" customHeight="1" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" ht="26" customHeight="1" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" ht="26" customHeight="1" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" ht="26" customHeight="1" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" ht="26" customHeight="1" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" ht="26" customHeight="1" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" ht="26" customHeight="1" spans="1:6">
+      <c r="A47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" s="6" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" ht="26" customHeight="1" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" ht="26" customHeight="1" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" ht="26" customHeight="1" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" s="5" customFormat="1" ht="26" customHeight="1" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C77:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C15 C20 C30 C31 C32 C2:C4 C13:C14 C16:C19 C21:C27 C28:C29">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C52 C54 C33:C51">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C53 C65">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57 C58 C59 C60 C61 C62 C63 C64 C55:C56">
+      <formula1>[2]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C66:C76">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2422,29 +3595,29 @@
     <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="32.375" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="15" spans="1:5">
+    <row r="1" s="5" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2453,203 +3626,203 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="4" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="5" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="9" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>152</v>
+      <c r="D10" s="3" t="s">
+        <v>271</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="11" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>127</v>
+      <c r="D11" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="12" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>130</v>
+      <c r="D12" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="14" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="14" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="15" s="5" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -2658,24 +3831,24 @@
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" ht="26" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2712,33 +3885,33 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="26" style="6" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="26" style="6" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="10.625" style="5" customWidth="1"/>
+    <col min="2" max="3" width="26" style="5" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="28" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2747,103 +3920,103 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" ht="28" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -2852,14 +4025,14 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" ht="28" customHeight="1" spans="1:5">
@@ -2867,66 +4040,66 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>159</v>
+      <c r="D10" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>161</v>
+      <c r="D11" s="3" t="s">
+        <v>278</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>162</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>69</v>
@@ -2935,25 +4108,25 @@
         <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" ht="26" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +4152,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2991,24 +4164,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3017,103 +4190,103 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>147</v>
+        <v>267</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3122,14 +4295,14 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>150</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" ht="27" customHeight="1" spans="1:5">
@@ -3137,28 +4310,28 @@
         <v>113</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>164</v>
+        <v>281</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>165</v>
+      <c r="D10" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>166</v>
+        <v>117</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>167</v>
+      <c r="D11" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -3166,54 +4339,54 @@
     </row>
     <row r="12" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>120</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>170</v>
+      <c r="D12" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="13" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" ht="27" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
@@ -3222,25 +4395,25 @@
         <v>69</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" ht="23" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>156</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3263,334 +4436,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="35.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" ht="24" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" ht="24" customHeight="1" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="24" customHeight="1" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="24" customHeight="1" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" ht="24" customHeight="1" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="24" customHeight="1" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" ht="24" customHeight="1" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="24" customHeight="1" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" ht="24" customHeight="1" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" ht="24" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" ht="24" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" ht="24" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="14" ht="24" customHeight="1" spans="1:5">
-      <c r="A14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" ht="24" customHeight="1" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" ht="24" customHeight="1" spans="1:5">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" ht="24" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" ht="24" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" ht="24" customHeight="1" spans="1:5">
-      <c r="A19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>Actions!$A$2:$A$27</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C19 C2:C7">
-      <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
@@ -3605,24 +4451,24 @@
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" ht="27" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -3631,60 +4477,60 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" ht="27" customHeight="1" spans="1:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="27" customHeight="1" spans="1:5">
+    <row r="4" ht="24" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="27" customHeight="1" spans="1:5">
+    <row r="5" ht="24" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="1:5">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -3693,65 +4539,765 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="27" customHeight="1" spans="1:5">
+    <row r="7" ht="24" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>188</v>
+        <v>292</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" ht="27" customHeight="1" spans="1:5">
+        <v>229</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>96</v>
+        <v>294</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>191</v>
-      </c>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C2:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C2:C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12 C2:C5 C6:C8 C9:C11">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="5" max="5" width="47.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C2:C7">
+      <formula1>Actions!$A$2:$A$50</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="5" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="24" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" ht="24" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" ht="24" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" ht="24" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" ht="24" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" ht="24" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" ht="24" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" ht="24" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" ht="24" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C2:C7">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/monthticket/monthTicketBill.xlsx
+++ b/res/testcase/monthticket/monthTicketBill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="657" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -397,13 +397,13 @@
     <t>MonthTicketPage.选择停车场列表</t>
   </si>
   <si>
-    <t>AKE入口;on</t>
+    <t>$全局变量.停车场入口;on</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>AKE出口;on</t>
+    <t>$全局变量.停车场出口;on</t>
   </si>
   <si>
     <t>13</t>
@@ -943,7 +943,7 @@
     <t>MonthTicketBillPage.选择停车场</t>
   </si>
   <si>
-    <t>出租车停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>MonthTicketBillPage.检查列表的文本</t>
@@ -978,10 +978,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1012,51 +1012,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,38 +1026,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1117,9 +1049,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1133,6 +1124,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1141,15 +1139,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1170,7 +1170,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1182,13 +1254,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1290,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,145 +1350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,6 +1404,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1418,17 +1442,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,24 +1492,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1476,30 +1500,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1508,145 +1508,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1830,7 +1830,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2494,8 +2494,8 @@
   <sheetPr/>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3585,7 +3585,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3880,7 +3880,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4152,7 +4152,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4439,7 +4439,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4656,8 +4656,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4875,7 +4875,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -5094,7 +5094,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
